--- a/SchedulingData/static8/pso/scheduling1_18.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_18.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>59.9</v>
+        <v>63.42</v>
       </c>
       <c r="E2" t="n">
-        <v>26.2</v>
+        <v>26.348</v>
       </c>
     </row>
     <row r="3">
@@ -485,55 +485,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>90.92</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
-        <v>26.568</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>48.42</v>
+        <v>66.02</v>
       </c>
       <c r="E4" t="n">
-        <v>26.348</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59.9</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>118.2</v>
+        <v>105.3</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="6">
@@ -542,55 +542,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>90.92</v>
+        <v>105.3</v>
       </c>
       <c r="D6" t="n">
-        <v>162.26</v>
+        <v>151.8</v>
       </c>
       <c r="E6" t="n">
-        <v>22.564</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>162.26</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>216.34</v>
+        <v>65.38</v>
       </c>
       <c r="E7" t="n">
-        <v>19.756</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>118.2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>156.54</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>19.296</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="9">
@@ -599,74 +599,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>156.54</v>
+        <v>65.38</v>
       </c>
       <c r="D9" t="n">
-        <v>236.04</v>
+        <v>132.78</v>
       </c>
       <c r="E9" t="n">
-        <v>13.956</v>
+        <v>20.032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>236.04</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>270.52</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>11.148</v>
+        <v>26.064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>47.5</v>
+        <v>138.14</v>
       </c>
       <c r="E11" t="n">
-        <v>27.44</v>
+        <v>21.976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>48.42</v>
+        <v>66.02</v>
       </c>
       <c r="D12" t="n">
-        <v>92.90000000000001</v>
+        <v>124.32</v>
       </c>
       <c r="E12" t="n">
-        <v>22.54</v>
+        <v>22.368</v>
       </c>
     </row>
     <row r="13">
@@ -675,55 +675,55 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>47.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>123.1</v>
+        <v>168.44</v>
       </c>
       <c r="E13" t="n">
-        <v>23.96</v>
+        <v>22.376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>132.78</v>
       </c>
       <c r="D14" t="n">
-        <v>65.95999999999999</v>
+        <v>199.68</v>
       </c>
       <c r="E14" t="n">
-        <v>26.064</v>
+        <v>15.952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>92.90000000000001</v>
+        <v>63.42</v>
       </c>
       <c r="D15" t="n">
-        <v>138.32</v>
+        <v>133.62</v>
       </c>
       <c r="E15" t="n">
-        <v>19.628</v>
+        <v>21.928</v>
       </c>
     </row>
     <row r="16">
@@ -732,74 +732,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>123.1</v>
+        <v>168.44</v>
       </c>
       <c r="D16" t="n">
-        <v>198.1</v>
+        <v>215.64</v>
       </c>
       <c r="E16" t="n">
-        <v>20.04</v>
+        <v>18.296</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>138.32</v>
+        <v>199.68</v>
       </c>
       <c r="D17" t="n">
-        <v>204.44</v>
+        <v>262.78</v>
       </c>
       <c r="E17" t="n">
-        <v>16.636</v>
+        <v>13.232</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>216.34</v>
+        <v>262.78</v>
       </c>
       <c r="D18" t="n">
-        <v>271.14</v>
+        <v>330.36</v>
       </c>
       <c r="E18" t="n">
-        <v>16.916</v>
+        <v>8.584</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>204.44</v>
+        <v>330.36</v>
       </c>
       <c r="D19" t="n">
-        <v>270.84</v>
+        <v>397</v>
       </c>
       <c r="E19" t="n">
-        <v>13.116</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="20">
@@ -808,74 +808,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>65.95999999999999</v>
+        <v>133.62</v>
       </c>
       <c r="D20" t="n">
-        <v>131.06</v>
+        <v>189.16</v>
       </c>
       <c r="E20" t="n">
-        <v>21.684</v>
+        <v>19.464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>271.14</v>
+        <v>215.64</v>
       </c>
       <c r="D21" t="n">
-        <v>324.92</v>
+        <v>286.64</v>
       </c>
       <c r="E21" t="n">
-        <v>13.668</v>
+        <v>13.316</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>270.84</v>
+        <v>189.16</v>
       </c>
       <c r="D22" t="n">
-        <v>332.14</v>
+        <v>262.92</v>
       </c>
       <c r="E22" t="n">
-        <v>9.096</v>
+        <v>15.668</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>324.92</v>
+        <v>124.32</v>
       </c>
       <c r="D23" t="n">
-        <v>382.12</v>
+        <v>198.92</v>
       </c>
       <c r="E23" t="n">
-        <v>9.587999999999999</v>
+        <v>17.028</v>
       </c>
     </row>
     <row r="24">
@@ -884,112 +884,112 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>198.92</v>
       </c>
       <c r="D24" t="n">
-        <v>82.23999999999999</v>
+        <v>275.32</v>
       </c>
       <c r="E24" t="n">
-        <v>24.956</v>
+        <v>11.508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>82.23999999999999</v>
+        <v>397</v>
       </c>
       <c r="D25" t="n">
-        <v>149.54</v>
+        <v>451.32</v>
       </c>
       <c r="E25" t="n">
-        <v>19.356</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>149.54</v>
+        <v>451.32</v>
       </c>
       <c r="D26" t="n">
-        <v>217.74</v>
+        <v>542.46</v>
       </c>
       <c r="E26" t="n">
-        <v>15.156</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>131.06</v>
+        <v>151.8</v>
       </c>
       <c r="D27" t="n">
-        <v>191.46</v>
+        <v>208.14</v>
       </c>
       <c r="E27" t="n">
-        <v>17.264</v>
+        <v>14.776</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>270.52</v>
+        <v>286.64</v>
       </c>
       <c r="D28" t="n">
-        <v>356.46</v>
+        <v>341.88</v>
       </c>
       <c r="E28" t="n">
-        <v>7.144</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>332.14</v>
+        <v>262.92</v>
       </c>
       <c r="D29" t="n">
-        <v>387.9</v>
+        <v>307.62</v>
       </c>
       <c r="E29" t="n">
-        <v>5.16</v>
+        <v>12.828</v>
       </c>
     </row>
     <row r="30">
@@ -998,470 +998,470 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>387.9</v>
+        <v>138.14</v>
       </c>
       <c r="D30" t="n">
-        <v>451.1</v>
+        <v>208.9</v>
       </c>
       <c r="E30" t="n">
-        <v>2.44</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>356.46</v>
+        <v>208.9</v>
       </c>
       <c r="D31" t="n">
-        <v>416.98</v>
+        <v>283.5</v>
       </c>
       <c r="E31" t="n">
-        <v>3.712</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>451.1</v>
+        <v>307.62</v>
       </c>
       <c r="D32" t="n">
-        <v>518.12</v>
+        <v>362.1</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>518.12</v>
+        <v>362.1</v>
       </c>
       <c r="D33" t="n">
-        <v>599.76</v>
+        <v>424.3</v>
       </c>
       <c r="E33" t="n">
-        <v>26.976</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>217.74</v>
+        <v>424.3</v>
       </c>
       <c r="D34" t="n">
-        <v>306.6</v>
+        <v>498.18</v>
       </c>
       <c r="E34" t="n">
-        <v>11.36</v>
+        <v>2.132</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>198.1</v>
+        <v>208.14</v>
       </c>
       <c r="D35" t="n">
-        <v>274</v>
+        <v>262.18</v>
       </c>
       <c r="E35" t="n">
-        <v>15.06</v>
+        <v>10.992</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>191.46</v>
+        <v>341.88</v>
       </c>
       <c r="D36" t="n">
-        <v>273.24</v>
+        <v>385.76</v>
       </c>
       <c r="E36" t="n">
-        <v>13.676</v>
+        <v>7.164</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>306.6</v>
+        <v>498.18</v>
       </c>
       <c r="D37" t="n">
-        <v>353.9</v>
+        <v>575.8200000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>7.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>599.76</v>
+        <v>575.8200000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>668</v>
+        <v>622.04</v>
       </c>
       <c r="E38" t="n">
-        <v>24.272</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>273.24</v>
+        <v>275.32</v>
       </c>
       <c r="D39" t="n">
-        <v>330.88</v>
+        <v>350.36</v>
       </c>
       <c r="E39" t="n">
-        <v>9.532</v>
+        <v>8.603999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>382.12</v>
+        <v>350.36</v>
       </c>
       <c r="D40" t="n">
-        <v>437.56</v>
+        <v>407.26</v>
       </c>
       <c r="E40" t="n">
-        <v>6.684</v>
+        <v>5.044</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>274</v>
+        <v>262.18</v>
       </c>
       <c r="D41" t="n">
-        <v>320.92</v>
+        <v>342.6</v>
       </c>
       <c r="E41" t="n">
-        <v>11.508</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>437.56</v>
+        <v>385.76</v>
       </c>
       <c r="D42" t="n">
-        <v>507.5</v>
+        <v>437.54</v>
       </c>
       <c r="E42" t="n">
-        <v>2.82</v>
+        <v>3.116</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>320.92</v>
+        <v>542.46</v>
       </c>
       <c r="D43" t="n">
-        <v>386.48</v>
+        <v>602.48</v>
       </c>
       <c r="E43" t="n">
-        <v>7.592</v>
+        <v>27.168</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>386.48</v>
+        <v>342.6</v>
       </c>
       <c r="D44" t="n">
-        <v>426</v>
+        <v>408.1</v>
       </c>
       <c r="E44" t="n">
-        <v>4.28</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>507.5</v>
+        <v>437.54</v>
       </c>
       <c r="D45" t="n">
-        <v>598.36</v>
+        <v>495.58</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>598.36</v>
+        <v>495.58</v>
       </c>
       <c r="D46" t="n">
-        <v>671.4400000000001</v>
+        <v>581.46</v>
       </c>
       <c r="E46" t="n">
-        <v>25.352</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>330.88</v>
+        <v>408.1</v>
       </c>
       <c r="D47" t="n">
-        <v>390.44</v>
+        <v>478.76</v>
       </c>
       <c r="E47" t="n">
-        <v>6.676</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>353.9</v>
+        <v>478.76</v>
       </c>
       <c r="D48" t="n">
-        <v>421.3</v>
+        <v>549.26</v>
       </c>
       <c r="E48" t="n">
-        <v>4.12</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>671.4400000000001</v>
+        <v>581.46</v>
       </c>
       <c r="D49" t="n">
-        <v>727.08</v>
+        <v>661.6</v>
       </c>
       <c r="E49" t="n">
-        <v>22.888</v>
+        <v>26.136</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>668</v>
+        <v>622.04</v>
       </c>
       <c r="D50" t="n">
-        <v>747.5</v>
+        <v>667.98</v>
       </c>
       <c r="E50" t="n">
-        <v>20.432</v>
+        <v>23.604</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>421.3</v>
+        <v>602.48</v>
       </c>
       <c r="D51" t="n">
-        <v>504.76</v>
+        <v>675.28</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>23.528</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>504.76</v>
+        <v>283.5</v>
       </c>
       <c r="D52" t="n">
-        <v>581.76</v>
+        <v>343.76</v>
       </c>
       <c r="E52" t="n">
-        <v>24.48</v>
+        <v>10.284</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>426</v>
+        <v>407.26</v>
       </c>
       <c r="D53" t="n">
-        <v>465.62</v>
+        <v>454.08</v>
       </c>
       <c r="E53" t="n">
-        <v>1.448</v>
+        <v>1.492</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>465.62</v>
+        <v>454.08</v>
       </c>
       <c r="D54" t="n">
-        <v>554.42</v>
+        <v>537.7</v>
       </c>
       <c r="E54" t="n">
         <v>30</v>
@@ -1469,59 +1469,59 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>416.98</v>
+        <v>343.76</v>
       </c>
       <c r="D55" t="n">
-        <v>467.5</v>
+        <v>399.68</v>
       </c>
       <c r="E55" t="n">
-        <v>0.28</v>
+        <v>7.292</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>467.5</v>
+        <v>661.6</v>
       </c>
       <c r="D56" t="n">
-        <v>538.84</v>
+        <v>728.8</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>22.536</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>554.42</v>
+        <v>537.7</v>
       </c>
       <c r="D57" t="n">
-        <v>617.02</v>
+        <v>606.6</v>
       </c>
       <c r="E57" t="n">
-        <v>25.92</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="58">
@@ -1530,207 +1530,207 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>390.44</v>
+        <v>667.98</v>
       </c>
       <c r="D58" t="n">
-        <v>429.84</v>
+        <v>724.88</v>
       </c>
       <c r="E58" t="n">
-        <v>3.376</v>
+        <v>21.044</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>429.84</v>
+        <v>399.68</v>
       </c>
       <c r="D59" t="n">
-        <v>519.49</v>
+        <v>441.96</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>3.704</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>519.49</v>
+        <v>549.26</v>
       </c>
       <c r="D60" t="n">
-        <v>565.49</v>
+        <v>610.66</v>
       </c>
       <c r="E60" t="n">
-        <v>26.1</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>565.49</v>
+        <v>610.66</v>
       </c>
       <c r="D61" t="n">
-        <v>651.67</v>
+        <v>665.88</v>
       </c>
       <c r="E61" t="n">
-        <v>22.052</v>
+        <v>18.688</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>727.08</v>
+        <v>728.8</v>
       </c>
       <c r="D62" t="n">
-        <v>773</v>
+        <v>790.34</v>
       </c>
       <c r="E62" t="n">
-        <v>18.936</v>
+        <v>19.512</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>538.84</v>
+        <v>665.88</v>
       </c>
       <c r="D63" t="n">
-        <v>613.1799999999999</v>
+        <v>729.88</v>
       </c>
       <c r="E63" t="n">
-        <v>26.216</v>
+        <v>15.388</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>773</v>
+        <v>606.6</v>
       </c>
       <c r="D64" t="n">
-        <v>839.5</v>
+        <v>671.0599999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>15.376</v>
+        <v>22.944</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>747.5</v>
+        <v>724.88</v>
       </c>
       <c r="D65" t="n">
-        <v>833.04</v>
+        <v>793.4400000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>17.468</v>
+        <v>17.768</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>651.67</v>
+        <v>675.28</v>
       </c>
       <c r="D66" t="n">
-        <v>690.83</v>
+        <v>734.1799999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>18.776</v>
+        <v>19.748</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>581.76</v>
+        <v>441.96</v>
       </c>
       <c r="D67" t="n">
-        <v>636.74</v>
+        <v>527.28</v>
       </c>
       <c r="E67" t="n">
-        <v>20.112</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>613.1799999999999</v>
+        <v>527.28</v>
       </c>
       <c r="D68" t="n">
-        <v>701.88</v>
+        <v>623.34</v>
       </c>
       <c r="E68" t="n">
-        <v>22.436</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>617.02</v>
+        <v>790.34</v>
       </c>
       <c r="D69" t="n">
-        <v>697.0599999999999</v>
+        <v>864.22</v>
       </c>
       <c r="E69" t="n">
-        <v>23.016</v>
+        <v>16.704</v>
       </c>
     </row>
     <row r="70">
@@ -1758,36 +1758,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>636.74</v>
+        <v>671.0599999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>723.54</v>
+        <v>729.3</v>
       </c>
       <c r="E70" t="n">
-        <v>16.032</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>839.5</v>
+        <v>734.1799999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>901.78</v>
+        <v>805.12</v>
       </c>
       <c r="E71" t="n">
-        <v>11.288</v>
+        <v>15.744</v>
       </c>
     </row>
   </sheetData>
